--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116254.4115037698</v>
+        <v>106661.0972284728</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13110868.26181874</v>
+        <v>13110868.26181873</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4474739.533075978</v>
+        <v>4474739.533075977</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>66.89487755631824</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>62.80398963419895</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.09088792211929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="U12" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>66.89487755631825</v>
       </c>
-      <c r="U13" t="n">
-        <v>75.94786280235958</v>
-      </c>
-      <c r="V13" t="n">
-        <v>75.94786280235958</v>
-      </c>
       <c r="W13" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>15.83348434264532</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.94786280235958</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="T14" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>15.8334843426452</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.09088792211929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>75.94786280235958</v>
+        <v>62.80398963419888</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.94786280235958</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.94786280235958</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.89487755631816</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>19.18900435849467</v>
+        <v>3.937132017712051</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5938681247176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.8342101144169</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.56614462310381</v>
+        <v>6.566144623103852</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.27921799467808</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.8248987652832</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.46132517089386</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>86.56515504752021</v>
+        <v>64.68673545084692</v>
       </c>
       <c r="T18" t="n">
-        <v>153.3335659764133</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>195.3052427009581</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>83.17703880866787</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>96.33806588825146</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.659613711565</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.9470948589634</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.56759834851381</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>157.8619582028116</v>
       </c>
       <c r="U19" t="n">
         <v>279.9200783364927</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>25.75514898159845</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5938681247176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.8342101144169</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.27921799467809</v>
+        <v>87.27921799467811</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>132.4670975346332</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>104.8248987652832</v>
       </c>
       <c r="H21" t="n">
-        <v>59.46132517089387</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>86.56515504752022</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>153.3335659764133</v>
       </c>
       <c r="U21" t="n">
         <v>195.3052427009581</v>
       </c>
       <c r="V21" t="n">
-        <v>111.9749232515669</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>88.87189228247286</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.36593207363013</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>110.4549479226606</v>
       </c>
       <c r="G22" t="n">
-        <v>164.659613711565</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.9470948589634</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.56759834851381</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.13107755663446</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.2297196102549</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9200783364927</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>73.89493154320738</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>333.9338608104367</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098197</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2484,16 +2484,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>165.1043445790717</v>
+        <v>200.4478288265912</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.06913856489327</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>54.87221002055784</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2687,7 +2687,7 @@
         <v>83.78946074098185</v>
       </c>
       <c r="T27" t="n">
-        <v>152.7312370348055</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U27" t="n">
         <v>195.2954114342289</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>95.01279449217051</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
         <v>83.80004204681616</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.6944259398202</v>
@@ -2772,7 +2772,7 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
-        <v>243.1994015508345</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>224.9840420604403</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>338.3241153350947</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>28.51513595002503</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>83.80004204681616</v>
@@ -3000,7 +3000,7 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>232.6944259398202</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>98.96844401697425</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>371.8448010412127</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>28.66556031162838</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.6754635109993</v>
+        <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
         <v>58.01809521505031</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.85255598777715</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>133.8133605696448</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>86.95299951232442</v>
+        <v>60.22316824472532</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3426,16 +3426,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.3837600532833</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
@@ -3444,7 +3444,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
-        <v>83.80004204681616</v>
+        <v>25.94338470442013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>279.8011770841596</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>94.8352383234613</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193197</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>71.19671597555188</v>
+        <v>11.60523990109529</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3678,10 +3678,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>73.27484966101365</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>110.1945460680113</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028007</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>73.26448364604249</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>166.3415337283568</v>
@@ -3954,10 +3954,10 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.441199382581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.59803407597304</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>72.83691809691666</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>120.9717447278245</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>104.2995716760716</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.075829024188766</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="C11" t="n">
-        <v>6.075829024188766</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="D11" t="n">
-        <v>6.075829024188766</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="E11" t="n">
-        <v>6.075829024188766</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="F11" t="n">
-        <v>6.075829024188766</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="G11" t="n">
-        <v>6.075829024188766</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H11" t="n">
-        <v>6.075829024188766</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I11" t="n">
-        <v>6.075829024188766</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747934</v>
+        <v>8.518653200747849</v>
       </c>
       <c r="K11" t="n">
-        <v>32.7289132941888</v>
+        <v>32.72891329418871</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020706</v>
+        <v>77.70909531020692</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211126</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655151</v>
+        <v>206.3455576655149</v>
       </c>
       <c r="O11" t="n">
-        <v>263.0412330294161</v>
+        <v>263.0412330294158</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038208</v>
+        <v>297.4567749038205</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R11" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S11" t="n">
-        <v>303.7914512094383</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="T11" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="U11" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="V11" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W11" t="n">
-        <v>227.076438277762</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="X11" t="n">
-        <v>150.3614253460856</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="Y11" t="n">
-        <v>73.64641241440923</v>
+        <v>150.3614253460855</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.075829024188766</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="C12" t="n">
-        <v>6.075829024188766</v>
+        <v>86.92305197820774</v>
       </c>
       <c r="D12" t="n">
-        <v>6.075829024188766</v>
+        <v>86.92305197820774</v>
       </c>
       <c r="E12" t="n">
-        <v>6.075829024188766</v>
+        <v>86.92305197820774</v>
       </c>
       <c r="F12" t="n">
-        <v>6.075829024188766</v>
+        <v>10.20803904653148</v>
       </c>
       <c r="G12" t="n">
-        <v>6.075829024188766</v>
+        <v>10.20803904653148</v>
       </c>
       <c r="H12" t="n">
-        <v>6.075829024188766</v>
+        <v>10.20803904653148</v>
       </c>
       <c r="I12" t="n">
-        <v>6.075829024188766</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J12" t="n">
-        <v>6.075829024188766</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="K12" t="n">
-        <v>27.18934645194807</v>
+        <v>27.18934645194804</v>
       </c>
       <c r="L12" t="n">
-        <v>74.33970537129231</v>
+        <v>74.33970537129221</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011799</v>
+        <v>137.2014819011798</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956374</v>
+        <v>207.5625237956372</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282921</v>
+        <v>262.9301139282919</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741911</v>
+        <v>299.5375944741908</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R12" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S12" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T12" t="n">
-        <v>303.7914512094383</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U12" t="n">
-        <v>227.076438277762</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="V12" t="n">
-        <v>150.3614253460856</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="W12" t="n">
-        <v>73.64641241440923</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="X12" t="n">
-        <v>6.075829024188766</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.075829024188766</v>
+        <v>227.0764382777617</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="C13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="D13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="E13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="F13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="G13" t="n">
-        <v>6.075829024188766</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="H13" t="n">
-        <v>6.075829024188766</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="I13" t="n">
-        <v>6.075829024188766</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J13" t="n">
-        <v>48.19497630457665</v>
+        <v>48.19497630457663</v>
       </c>
       <c r="K13" t="n">
-        <v>123.3833604789126</v>
+        <v>71.22902336181893</v>
       </c>
       <c r="L13" t="n">
-        <v>152.8772665983641</v>
+        <v>146.4174075361548</v>
       </c>
       <c r="M13" t="n">
-        <v>228.0656507727001</v>
+        <v>152.877266598364</v>
       </c>
       <c r="N13" t="n">
-        <v>303.2540349470361</v>
+        <v>228.0656507726999</v>
       </c>
       <c r="O13" t="n">
-        <v>303.7914512094383</v>
+        <v>228.6030670351021</v>
       </c>
       <c r="P13" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="Q13" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R13" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S13" t="n">
-        <v>303.7914512094383</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T13" t="n">
-        <v>236.2208678192179</v>
+        <v>303.791451209438</v>
       </c>
       <c r="U13" t="n">
-        <v>159.5058548875415</v>
+        <v>303.791451209438</v>
       </c>
       <c r="V13" t="n">
-        <v>82.79084195586512</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="W13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="X13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.075829024188766</v>
+        <v>236.2208678192175</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150.3614253460856</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="C14" t="n">
-        <v>150.3614253460856</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="D14" t="n">
-        <v>150.3614253460856</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="E14" t="n">
-        <v>150.3614253460856</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="F14" t="n">
-        <v>150.3614253460856</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="G14" t="n">
-        <v>73.64641241440923</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="H14" t="n">
-        <v>57.65299388648466</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="I14" t="n">
-        <v>6.075829024188766</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J14" t="n">
         <v>8.518653200747849</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418866</v>
+        <v>32.72891329418863</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020682</v>
+        <v>77.70909531020681</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211123</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655146</v>
       </c>
       <c r="O14" t="n">
-        <v>263.041233029416</v>
+        <v>263.0412330294155</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4567749038208</v>
+        <v>297.4567749038202</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.7914512094383</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R14" t="n">
-        <v>303.7914512094383</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S14" t="n">
-        <v>227.076438277762</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="T14" t="n">
-        <v>150.3614253460856</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="U14" t="n">
-        <v>150.3614253460856</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="V14" t="n">
-        <v>150.3614253460856</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="W14" t="n">
-        <v>150.3614253460856</v>
+        <v>73.64641241440913</v>
       </c>
       <c r="X14" t="n">
-        <v>150.3614253460856</v>
+        <v>57.65299388648468</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.3614253460856</v>
+        <v>57.65299388648468</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.075829024188766</v>
+        <v>163.6380649098838</v>
       </c>
       <c r="C15" t="n">
-        <v>6.075829024188766</v>
+        <v>163.6380649098838</v>
       </c>
       <c r="D15" t="n">
-        <v>6.075829024188766</v>
+        <v>163.6380649098838</v>
       </c>
       <c r="E15" t="n">
-        <v>6.075829024188766</v>
+        <v>163.6380649098838</v>
       </c>
       <c r="F15" t="n">
-        <v>6.075829024188766</v>
+        <v>86.92305197820764</v>
       </c>
       <c r="G15" t="n">
-        <v>6.075829024188766</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="H15" t="n">
-        <v>6.075829024188766</v>
+        <v>10.20803904653147</v>
       </c>
       <c r="I15" t="n">
-        <v>6.075829024188766</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J15" t="n">
-        <v>6.075829024188766</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194806</v>
+        <v>27.18934645194802</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129228</v>
+        <v>74.33970537129218</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011799</v>
+        <v>137.2014819011797</v>
       </c>
       <c r="N15" t="n">
-        <v>207.5625237956374</v>
+        <v>207.5625237956371</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282921</v>
+        <v>262.9301139282918</v>
       </c>
       <c r="P15" t="n">
-        <v>299.537594474191</v>
+        <v>299.5375944741907</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7914512094383</v>
+        <v>303.7914512094379</v>
       </c>
       <c r="R15" t="n">
-        <v>303.7914512094383</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S15" t="n">
-        <v>236.2208678192179</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="T15" t="n">
-        <v>159.5058548875415</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="U15" t="n">
-        <v>82.79084195586512</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="V15" t="n">
-        <v>6.075829024188766</v>
+        <v>240.35307784156</v>
       </c>
       <c r="W15" t="n">
-        <v>6.075829024188766</v>
+        <v>163.6380649098838</v>
       </c>
       <c r="X15" t="n">
-        <v>6.075829024188766</v>
+        <v>163.6380649098838</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.075829024188766</v>
+        <v>163.6380649098838</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="C16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="D16" t="n">
-        <v>236.2208678192179</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="E16" t="n">
-        <v>159.5058548875415</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="F16" t="n">
-        <v>82.79084195586512</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="G16" t="n">
-        <v>6.075829024188766</v>
+        <v>73.64641241440913</v>
       </c>
       <c r="H16" t="n">
-        <v>6.075829024188766</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="I16" t="n">
-        <v>6.075829024188766</v>
+        <v>6.075829024188753</v>
       </c>
       <c r="J16" t="n">
-        <v>6.075829024188766</v>
+        <v>48.19497630457661</v>
       </c>
       <c r="K16" t="n">
-        <v>81.26421319852474</v>
+        <v>123.3833604789124</v>
       </c>
       <c r="L16" t="n">
-        <v>86.13945075206819</v>
+        <v>198.5717446532482</v>
       </c>
       <c r="M16" t="n">
-        <v>161.3278349264042</v>
+        <v>228.0656507726997</v>
       </c>
       <c r="N16" t="n">
-        <v>236.5162191007402</v>
+        <v>303.2540349470354</v>
       </c>
       <c r="O16" t="n">
-        <v>237.0536353631424</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0536353631424</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="Q16" t="n">
-        <v>303.7914512094383</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="R16" t="n">
-        <v>303.7914512094383</v>
+        <v>303.7914512094376</v>
       </c>
       <c r="S16" t="n">
-        <v>303.7914512094383</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="T16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="U16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="V16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="W16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="X16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
       <c r="Y16" t="n">
-        <v>303.7914512094383</v>
+        <v>150.3614253460853</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1591.368514568901</v>
+        <v>868.6647633306147</v>
       </c>
       <c r="C17" t="n">
-        <v>1591.368514568901</v>
+        <v>458.5401726438848</v>
       </c>
       <c r="D17" t="n">
-        <v>1571.985681883553</v>
+        <v>454.5632716158929</v>
       </c>
       <c r="E17" t="n">
-        <v>1157.64546640045</v>
+        <v>40.22305613278955</v>
       </c>
       <c r="F17" t="n">
-        <v>736.6150543541376</v>
+        <v>40.22305613278955</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9545815008873</v>
+        <v>40.22305613278955</v>
       </c>
       <c r="H17" t="n">
-        <v>40.22305613278952</v>
+        <v>40.22305613278955</v>
       </c>
       <c r="I17" t="n">
         <v>33.59058681652304</v>
       </c>
       <c r="J17" t="n">
-        <v>133.0106191900391</v>
+        <v>133.010619190039</v>
       </c>
       <c r="K17" t="n">
-        <v>302.5645756228503</v>
+        <v>302.5645756228502</v>
       </c>
       <c r="L17" t="n">
-        <v>527.8564651166366</v>
+        <v>527.8564651166369</v>
       </c>
       <c r="M17" t="n">
-        <v>791.3632234431243</v>
+        <v>791.3632234431245</v>
       </c>
       <c r="N17" t="n">
         <v>1061.002389000596</v>
       </c>
       <c r="O17" t="n">
-        <v>1310.21422616476</v>
+        <v>1310.214226164759</v>
       </c>
       <c r="P17" t="n">
-        <v>1508.93785811687</v>
+        <v>1508.937858116869</v>
       </c>
       <c r="Q17" t="n">
-        <v>1638.661067292534</v>
+        <v>1638.661067292533</v>
       </c>
       <c r="R17" t="n">
         <v>1679.529340826152</v>
       </c>
       <c r="S17" t="n">
-        <v>1591.368514568901</v>
+        <v>1679.529340826152</v>
       </c>
       <c r="T17" t="n">
-        <v>1591.368514568901</v>
+        <v>1679.529340826152</v>
       </c>
       <c r="U17" t="n">
-        <v>1591.368514568901</v>
+        <v>1679.529340826152</v>
       </c>
       <c r="V17" t="n">
-        <v>1591.368514568901</v>
+        <v>1679.529340826152</v>
       </c>
       <c r="W17" t="n">
-        <v>1591.368514568901</v>
+        <v>1679.529340826152</v>
       </c>
       <c r="X17" t="n">
-        <v>1591.368514568901</v>
+        <v>1278.885942995104</v>
       </c>
       <c r="Y17" t="n">
-        <v>1591.368514568901</v>
+        <v>1278.885942995104</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>679.8811924169654</v>
+        <v>513.9355116733523</v>
       </c>
       <c r="C18" t="n">
-        <v>545.8861211659112</v>
+        <v>379.940440422298</v>
       </c>
       <c r="D18" t="n">
-        <v>428.9889633853036</v>
+        <v>263.0432826416904</v>
       </c>
       <c r="E18" t="n">
-        <v>308.4961473776316</v>
+        <v>142.5504666340184</v>
       </c>
       <c r="F18" t="n">
-        <v>199.5362675601362</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="G18" t="n">
-        <v>93.65253143358755</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="H18" t="n">
         <v>33.59058681652304</v>
       </c>
       <c r="I18" t="n">
-        <v>50.58920545281885</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="J18" t="n">
-        <v>345.8502715961295</v>
+        <v>328.8516529598336</v>
       </c>
       <c r="K18" t="n">
-        <v>465.6830528143195</v>
+        <v>448.6844341780235</v>
       </c>
       <c r="L18" t="n">
-        <v>645.5736446137265</v>
+        <v>628.5750259774305</v>
       </c>
       <c r="M18" t="n">
-        <v>863.3370119623441</v>
+        <v>846.3383933260479</v>
       </c>
       <c r="N18" t="n">
-        <v>1092.699428860435</v>
+        <v>1075.700810224138</v>
       </c>
       <c r="O18" t="n">
-        <v>1293.522213681399</v>
+        <v>1276.523595045102</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.870311521151</v>
+        <v>1429.871692884854</v>
       </c>
       <c r="Q18" t="n">
-        <v>1582.644402928261</v>
+        <v>1670.614119405241</v>
       </c>
       <c r="R18" t="n">
         <v>1679.529340826152</v>
       </c>
       <c r="S18" t="n">
-        <v>1592.089790273101</v>
+        <v>1614.189204007114</v>
       </c>
       <c r="T18" t="n">
-        <v>1437.207400397936</v>
+        <v>1614.189204007114</v>
       </c>
       <c r="U18" t="n">
-        <v>1239.929377467676</v>
+        <v>1416.911181076854</v>
       </c>
       <c r="V18" t="n">
-        <v>1239.929377467676</v>
+        <v>1203.199654069887</v>
       </c>
       <c r="W18" t="n">
-        <v>1155.912166549829</v>
+        <v>989.966485806216</v>
       </c>
       <c r="X18" t="n">
-        <v>979.586184688722</v>
+        <v>813.6405039451089</v>
       </c>
       <c r="Y18" t="n">
-        <v>820.1842250525521</v>
+        <v>654.2385443089389</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691.6685539254204</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="C19" t="n">
-        <v>691.6685539254204</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="D19" t="n">
-        <v>691.6685539254204</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="E19" t="n">
-        <v>594.3573762605199</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="F19" t="n">
-        <v>429.7262503711112</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="G19" t="n">
-        <v>263.4034082382173</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0427063604764</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="I19" t="n">
         <v>33.59058681652304</v>
@@ -5676,22 +5676,22 @@
         <v>111.9458499578603</v>
       </c>
       <c r="K19" t="n">
-        <v>165.8377965603351</v>
+        <v>372.1179901460491</v>
       </c>
       <c r="L19" t="n">
-        <v>560.8918931681078</v>
+        <v>767.1720867538218</v>
       </c>
       <c r="M19" t="n">
-        <v>647.693702312656</v>
+        <v>853.97389589837</v>
       </c>
       <c r="N19" t="n">
-        <v>834.1950787659046</v>
+        <v>1269.657407752843</v>
       </c>
       <c r="O19" t="n">
-        <v>1222.251529798216</v>
+        <v>1342.639099366414</v>
       </c>
       <c r="P19" t="n">
-        <v>1537.877360114105</v>
+        <v>1658.264929682302</v>
       </c>
       <c r="Q19" t="n">
         <v>1679.529340826152</v>
@@ -5703,22 +5703,22 @@
         <v>1679.529340826152</v>
       </c>
       <c r="T19" t="n">
-        <v>1679.529340826152</v>
+        <v>1520.072817388968</v>
       </c>
       <c r="U19" t="n">
-        <v>1396.781786950907</v>
+        <v>1237.325263513723</v>
       </c>
       <c r="V19" t="n">
-        <v>1396.781786950907</v>
+        <v>963.439518453245</v>
       </c>
       <c r="W19" t="n">
-        <v>1117.712122459781</v>
+        <v>684.3698539621194</v>
       </c>
       <c r="X19" t="n">
-        <v>879.3682603194648</v>
+        <v>446.0259918218027</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.3682603194648</v>
+        <v>221.2902932105674</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1591.368514568901</v>
+        <v>323.3221121846209</v>
       </c>
       <c r="C20" t="n">
-        <v>1591.368514568901</v>
+        <v>323.3221121846209</v>
       </c>
       <c r="D20" t="n">
-        <v>1565.353212567287</v>
+        <v>323.3221121846209</v>
       </c>
       <c r="E20" t="n">
-        <v>1151.012997084184</v>
+        <v>323.3221121846209</v>
       </c>
       <c r="F20" t="n">
-        <v>729.9825850378711</v>
+        <v>323.3221121846209</v>
       </c>
       <c r="G20" t="n">
         <v>323.3221121846209</v>
@@ -5752,28 +5752,28 @@
         <v>33.59058681652304</v>
       </c>
       <c r="J20" t="n">
-        <v>133.0106191900391</v>
+        <v>133.0106191900388</v>
       </c>
       <c r="K20" t="n">
-        <v>302.5645756228504</v>
+        <v>302.5645756228502</v>
       </c>
       <c r="L20" t="n">
-        <v>527.8564651166372</v>
+        <v>527.8564651166369</v>
       </c>
       <c r="M20" t="n">
-        <v>791.3632234431249</v>
+        <v>791.3632234431245</v>
       </c>
       <c r="N20" t="n">
-        <v>1061.002389000597</v>
+        <v>1061.002389000596</v>
       </c>
       <c r="O20" t="n">
-        <v>1310.21422616476</v>
+        <v>1310.214226164759</v>
       </c>
       <c r="P20" t="n">
-        <v>1508.93785811687</v>
+        <v>1508.937858116869</v>
       </c>
       <c r="Q20" t="n">
-        <v>1638.661067292534</v>
+        <v>1638.661067292533</v>
       </c>
       <c r="R20" t="n">
         <v>1679.529340826152</v>
@@ -5785,19 +5785,19 @@
         <v>1591.368514568901</v>
       </c>
       <c r="U20" t="n">
-        <v>1591.368514568901</v>
+        <v>1457.563365544019</v>
       </c>
       <c r="V20" t="n">
-        <v>1591.368514568901</v>
+        <v>1107.7258108805</v>
       </c>
       <c r="W20" t="n">
-        <v>1591.368514568901</v>
+        <v>723.9655100156683</v>
       </c>
       <c r="X20" t="n">
-        <v>1591.368514568901</v>
+        <v>323.3221121846209</v>
       </c>
       <c r="Y20" t="n">
-        <v>1591.368514568901</v>
+        <v>323.3221121846209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>679.8811924169656</v>
+        <v>619.8192477999009</v>
       </c>
       <c r="C21" t="n">
-        <v>545.8861211659113</v>
+        <v>485.8241765488467</v>
       </c>
       <c r="D21" t="n">
-        <v>428.9889633853037</v>
+        <v>368.9270187682391</v>
       </c>
       <c r="E21" t="n">
-        <v>308.4961473776316</v>
+        <v>248.4342027605671</v>
       </c>
       <c r="F21" t="n">
-        <v>199.5362675601362</v>
+        <v>139.4743229430717</v>
       </c>
       <c r="G21" t="n">
-        <v>93.65253143358757</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="H21" t="n">
         <v>33.59058681652304</v>
       </c>
       <c r="I21" t="n">
-        <v>50.58920545281883</v>
+        <v>50.58920545281882</v>
       </c>
       <c r="J21" t="n">
-        <v>102.1818676214962</v>
+        <v>345.8502715961293</v>
       </c>
       <c r="K21" t="n">
-        <v>222.0146488396861</v>
+        <v>465.6830528143193</v>
       </c>
       <c r="L21" t="n">
-        <v>401.9052406390932</v>
+        <v>699.0558682212254</v>
       </c>
       <c r="M21" t="n">
-        <v>619.6686079877106</v>
+        <v>916.8192355698429</v>
       </c>
       <c r="N21" t="n">
-        <v>849.0310248858009</v>
+        <v>1146.181652467933</v>
       </c>
       <c r="O21" t="n">
-        <v>1049.853809706765</v>
+        <v>1347.004437288897</v>
       </c>
       <c r="P21" t="n">
-        <v>1254.930607550769</v>
+        <v>1500.352535128649</v>
       </c>
       <c r="Q21" t="n">
-        <v>1670.614119405242</v>
+        <v>1582.64440292826</v>
       </c>
       <c r="R21" t="n">
         <v>1679.529340826152</v>
       </c>
       <c r="S21" t="n">
-        <v>1679.529340826152</v>
+        <v>1592.089790273101</v>
       </c>
       <c r="T21" t="n">
-        <v>1679.529340826152</v>
+        <v>1437.207400397936</v>
       </c>
       <c r="U21" t="n">
-        <v>1482.251317895891</v>
+        <v>1239.929377467675</v>
       </c>
       <c r="V21" t="n">
-        <v>1369.145334813501</v>
+        <v>1026.217850460709</v>
       </c>
       <c r="W21" t="n">
-        <v>1155.912166549829</v>
+        <v>1026.217850460709</v>
       </c>
       <c r="X21" t="n">
-        <v>979.5861846887223</v>
+        <v>849.8918685996016</v>
       </c>
       <c r="Y21" t="n">
-        <v>820.1842250525523</v>
+        <v>760.1222804354876</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.856208507574</v>
+        <v>145.161241283857</v>
       </c>
       <c r="C22" t="n">
-        <v>914.7628360692904</v>
+        <v>145.161241283857</v>
       </c>
       <c r="D22" t="n">
-        <v>755.2681913922004</v>
+        <v>145.161241283857</v>
       </c>
       <c r="E22" t="n">
-        <v>594.3573762605199</v>
+        <v>145.161241283857</v>
       </c>
       <c r="F22" t="n">
-        <v>429.7262503711112</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="G22" t="n">
-        <v>263.4034082382173</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="H22" t="n">
-        <v>122.0427063604764</v>
+        <v>33.59058681652304</v>
       </c>
       <c r="I22" t="n">
         <v>33.59058681652304</v>
@@ -5913,49 +5913,49 @@
         <v>111.9458499578603</v>
       </c>
       <c r="K22" t="n">
-        <v>165.8377965603351</v>
+        <v>165.837796560335</v>
       </c>
       <c r="L22" t="n">
-        <v>560.8918931681078</v>
+        <v>389.9994987359146</v>
       </c>
       <c r="M22" t="n">
-        <v>976.5754050225804</v>
+        <v>805.6830105903871</v>
       </c>
       <c r="N22" t="n">
-        <v>1149.269838184645</v>
+        <v>1221.36652244486</v>
       </c>
       <c r="O22" t="n">
-        <v>1222.251529798216</v>
+        <v>1609.422973477171</v>
       </c>
       <c r="P22" t="n">
-        <v>1537.877360114105</v>
+        <v>1664.151320319942</v>
       </c>
       <c r="Q22" t="n">
         <v>1679.529340826152</v>
       </c>
       <c r="R22" t="n">
-        <v>1635.962595819451</v>
+        <v>1679.529340826152</v>
       </c>
       <c r="S22" t="n">
-        <v>1635.962595819451</v>
+        <v>1679.529340826152</v>
       </c>
       <c r="T22" t="n">
-        <v>1635.962595819451</v>
+        <v>1443.943765462258</v>
       </c>
       <c r="U22" t="n">
-        <v>1635.962595819451</v>
+        <v>1161.196211587013</v>
       </c>
       <c r="V22" t="n">
-        <v>1635.962595819451</v>
+        <v>887.3104665265346</v>
       </c>
       <c r="W22" t="n">
-        <v>1356.892931328325</v>
+        <v>608.2408020354089</v>
       </c>
       <c r="X22" t="n">
-        <v>1118.549069188008</v>
+        <v>369.8969398950923</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.549069188008</v>
+        <v>145.161241283857</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1213.163994587037</v>
+        <v>733.707112676266</v>
       </c>
       <c r="C23" t="n">
-        <v>1213.163994587037</v>
+        <v>733.707112676266</v>
       </c>
       <c r="D23" t="n">
-        <v>1213.163994587037</v>
+        <v>733.707112676266</v>
       </c>
       <c r="E23" t="n">
-        <v>798.8237791039335</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F23" t="n">
-        <v>377.793367057621</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746588</v>
       </c>
       <c r="J23" t="n">
         <v>167.5334271492902</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752971</v>
+        <v>372.2593058752968</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879084</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501314</v>
+        <v>953.2429319501308</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O23" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P23" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q23" t="n">
         <v>1966.084838463273</v>
@@ -6016,25 +6016,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T23" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V23" t="n">
-        <v>2024.321847303436</v>
+        <v>1592.752156365284</v>
       </c>
       <c r="W23" t="n">
-        <v>2024.321847303436</v>
+        <v>1208.991855500452</v>
       </c>
       <c r="X23" t="n">
-        <v>2024.321847303436</v>
+        <v>808.3484576694048</v>
       </c>
       <c r="Y23" t="n">
-        <v>1623.385174251526</v>
+        <v>808.3484576694048</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692753</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I24" t="n">
-        <v>62.57863487475247</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399048</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>271.8704604711963</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L24" t="n">
-        <v>483.8830449928536</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M24" t="n">
-        <v>984.9027022004541</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N24" t="n">
-        <v>1399.455191901287</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O24" t="n">
-        <v>1635.476880655266</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P24" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q24" t="n">
         <v>1918.251596225539</v>
@@ -6098,7 +6098,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U24" t="n">
         <v>1588.14395921251</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>371.0744540614422</v>
+        <v>1003.048274546781</v>
       </c>
       <c r="C25" t="n">
-        <v>199.9810816231587</v>
+        <v>831.9549021084979</v>
       </c>
       <c r="D25" t="n">
-        <v>40.48643694606873</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E25" t="n">
-        <v>40.48643694606873</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F25" t="n">
-        <v>40.48643694606873</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G25" t="n">
-        <v>40.48643694606873</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H25" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J25" t="n">
-        <v>62.60916429909252</v>
+        <v>78.10934131778876</v>
       </c>
       <c r="K25" t="n">
-        <v>219.6034981877564</v>
+        <v>146.4111657438243</v>
       </c>
       <c r="L25" t="n">
-        <v>633.0972772623925</v>
+        <v>245.9258335834372</v>
       </c>
       <c r="M25" t="n">
-        <v>1084.307495648273</v>
+        <v>697.1360519693178</v>
       </c>
       <c r="N25" t="n">
-        <v>1523.241722224319</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O25" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P25" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
@@ -6174,25 +6174,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T25" t="n">
-        <v>1857.549782072051</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="U25" t="n">
-        <v>1574.809130758642</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="V25" t="n">
-        <v>1300.923385698164</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="W25" t="n">
-        <v>1021.853721207038</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="X25" t="n">
-        <v>783.5098590667219</v>
+        <v>1415.483679552061</v>
       </c>
       <c r="Y25" t="n">
-        <v>558.7741604554866</v>
+        <v>1190.747980940826</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1962.635848753039</v>
+        <v>500.3768416212484</v>
       </c>
       <c r="C26" t="n">
-        <v>1552.511258066309</v>
+        <v>500.3768416212484</v>
       </c>
       <c r="D26" t="n">
-        <v>1148.047328159369</v>
+        <v>95.91291171430896</v>
       </c>
       <c r="E26" t="n">
-        <v>733.707112676266</v>
+        <v>95.91291171430896</v>
       </c>
       <c r="F26" t="n">
-        <v>733.707112676266</v>
+        <v>95.91291171430896</v>
       </c>
       <c r="G26" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="I26" t="n">
-        <v>44.64574590746552</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L26" t="n">
         <v>641.1850750879075</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P26" t="n">
         <v>1806.502667397418</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U26" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V26" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="W26" t="n">
-        <v>2024.321847303436</v>
+        <v>1301.956912504206</v>
       </c>
       <c r="X26" t="n">
-        <v>2024.321847303436</v>
+        <v>901.3135146731584</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.321847303436</v>
+        <v>500.3768416212484</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606872</v>
@@ -6335,7 +6335,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U27" t="n">
         <v>1588.14395921251</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.1329440640648</v>
+        <v>527.5373432173758</v>
       </c>
       <c r="C28" t="n">
-        <v>125.1329440640648</v>
+        <v>527.5373432173758</v>
       </c>
       <c r="D28" t="n">
-        <v>125.1329440640648</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="E28" t="n">
-        <v>125.1329440640648</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="F28" t="n">
-        <v>125.1329440640648</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G28" t="n">
-        <v>125.1329440640648</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H28" t="n">
         <v>125.1329440640648</v>
@@ -6387,49 +6387,49 @@
         <v>62.6091642990925</v>
       </c>
       <c r="K28" t="n">
-        <v>337.1911823108421</v>
+        <v>130.910988725128</v>
       </c>
       <c r="L28" t="n">
-        <v>750.6849613854781</v>
+        <v>506.8233170565554</v>
       </c>
       <c r="M28" t="n">
-        <v>1201.895179771359</v>
+        <v>958.033535442436</v>
       </c>
       <c r="N28" t="n">
-        <v>1640.829406347405</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O28" t="n">
-        <v>1928.829063741821</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P28" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S28" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T28" t="n">
-        <v>1583.378488176654</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U28" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.981875700787</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W28" t="n">
-        <v>775.9122112096611</v>
+        <v>953.5809117517367</v>
       </c>
       <c r="X28" t="n">
-        <v>537.5683490693445</v>
+        <v>715.2370496114202</v>
       </c>
       <c r="Y28" t="n">
-        <v>312.8326504581092</v>
+        <v>715.2370496114202</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1272.359136997437</v>
+        <v>677.8676357746575</v>
       </c>
       <c r="C29" t="n">
-        <v>1272.359136997437</v>
+        <v>267.7430450879276</v>
       </c>
       <c r="D29" t="n">
-        <v>867.8952070904973</v>
+        <v>267.7430450879276</v>
       </c>
       <c r="E29" t="n">
-        <v>867.8952070904973</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F29" t="n">
-        <v>446.8647950441848</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H29" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746552</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J29" t="n">
         <v>167.5334271492898</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752969</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879081</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M29" t="n">
-        <v>953.242931950131</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P29" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q29" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354918</v>
       </c>
       <c r="U29" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354918</v>
       </c>
       <c r="V29" t="n">
-        <v>2024.321847303436</v>
+        <v>1462.564609691399</v>
       </c>
       <c r="W29" t="n">
-        <v>2024.321847303436</v>
+        <v>1078.804308826567</v>
       </c>
       <c r="X29" t="n">
-        <v>1682.580316661926</v>
+        <v>1078.804308826567</v>
       </c>
       <c r="Y29" t="n">
-        <v>1682.580316661926</v>
+        <v>677.8676357746575</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090089</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579547</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773471</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696751</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521797</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H30" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J30" t="n">
-        <v>371.8168719145381</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K30" t="n">
         <v>515.5388644458295</v>
@@ -6563,10 +6563,10 @@
         <v>1668.259056675766</v>
       </c>
       <c r="Q30" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6581,13 +6581,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W30" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807655</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445956</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.7839665330969</v>
+        <v>489.660610018045</v>
       </c>
       <c r="C31" t="n">
-        <v>755.6905940948134</v>
+        <v>318.5672375797615</v>
       </c>
       <c r="D31" t="n">
-        <v>596.1959494177233</v>
+        <v>289.7640699534736</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1959494177233</v>
+        <v>289.7640699534736</v>
       </c>
       <c r="F31" t="n">
-        <v>431.5648235283147</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="G31" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H31" t="n">
         <v>125.1329440640648</v>
       </c>
       <c r="I31" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J31" t="n">
-        <v>62.6091642990925</v>
+        <v>62.60916429909248</v>
       </c>
       <c r="K31" t="n">
         <v>337.1911823108421</v>
@@ -6639,34 +6639,34 @@
         <v>1701.450398350621</v>
       </c>
       <c r="P31" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>1986.445114104105</v>
       </c>
       <c r="S31" t="n">
-        <v>1818.423362863341</v>
+        <v>1986.445114104105</v>
       </c>
       <c r="T31" t="n">
-        <v>1583.378488176654</v>
+        <v>1751.400239417418</v>
       </c>
       <c r="U31" t="n">
-        <v>1300.637836863246</v>
+        <v>1468.65958810401</v>
       </c>
       <c r="V31" t="n">
-        <v>1026.752091802768</v>
+        <v>1194.773843043532</v>
       </c>
       <c r="W31" t="n">
-        <v>926.7839665330969</v>
+        <v>915.7041785524059</v>
       </c>
       <c r="X31" t="n">
-        <v>926.7839665330969</v>
+        <v>677.3603164120893</v>
       </c>
       <c r="Y31" t="n">
-        <v>926.7839665330969</v>
+        <v>677.3603164120893</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>450.6110276327986</v>
+        <v>1123.959975757</v>
       </c>
       <c r="C32" t="n">
-        <v>40.48643694606871</v>
+        <v>1123.959975757</v>
       </c>
       <c r="D32" t="n">
-        <v>40.48643694606871</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="E32" t="n">
-        <v>40.48643694606871</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="F32" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606871</v>
@@ -6700,16 +6700,16 @@
         <v>44.64574590746543</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752961</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879074</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576256</v>
@@ -6727,25 +6727,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U32" t="n">
-        <v>1995.366735877549</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V32" t="n">
-        <v>1645.529181214029</v>
+        <v>1123.959975757</v>
       </c>
       <c r="W32" t="n">
-        <v>1261.768880349198</v>
+        <v>1123.959975757</v>
       </c>
       <c r="X32" t="n">
-        <v>1261.768880349198</v>
+        <v>1123.959975757</v>
       </c>
       <c r="Y32" t="n">
-        <v>860.8322072972881</v>
+        <v>1123.959975757</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G33" t="n">
         <v>99.09057352692761</v>
@@ -6776,31 +6776,31 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J33" t="n">
-        <v>108.5806640902073</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K33" t="n">
-        <v>264.5117467880015</v>
+        <v>752.3247263384928</v>
       </c>
       <c r="L33" t="n">
-        <v>476.5243313096588</v>
+        <v>964.3373108601501</v>
       </c>
       <c r="M33" t="n">
-        <v>731.7725490686269</v>
+        <v>1219.585528619118</v>
       </c>
       <c r="N33" t="n">
-        <v>999.6119288277761</v>
+        <v>1487.424908378267</v>
       </c>
       <c r="O33" t="n">
-        <v>1235.633617581756</v>
+        <v>1723.446597132247</v>
       </c>
       <c r="P33" t="n">
-        <v>1417.231939017938</v>
+        <v>1905.04491856843</v>
       </c>
       <c r="Q33" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
@@ -6821,10 +6821,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.90316016604564</v>
+        <v>862.8126902484196</v>
       </c>
       <c r="C34" t="n">
-        <v>96.90316016604564</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="D34" t="n">
-        <v>96.90316016604564</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E34" t="n">
-        <v>96.90316016604564</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F34" t="n">
-        <v>96.90316016604564</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G34" t="n">
-        <v>96.90316016604564</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H34" t="n">
-        <v>96.90316016604564</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K34" t="n">
-        <v>303.6723642289236</v>
+        <v>273.7807741333786</v>
       </c>
       <c r="L34" t="n">
-        <v>717.1661433035596</v>
+        <v>687.2745532080146</v>
       </c>
       <c r="M34" t="n">
-        <v>823.4100121751546</v>
+        <v>1138.484771593895</v>
       </c>
       <c r="N34" t="n">
-        <v>1262.344238751201</v>
+        <v>1577.418998169941</v>
       </c>
       <c r="O34" t="n">
         <v>1667.931580268702</v>
@@ -6882,28 +6882,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T34" t="n">
-        <v>1583.378488176654</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U34" t="n">
-        <v>1300.637836863246</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="V34" t="n">
-        <v>1026.752091802768</v>
+        <v>1515.391227556271</v>
       </c>
       <c r="W34" t="n">
-        <v>747.682427311642</v>
+        <v>1236.321563065145</v>
       </c>
       <c r="X34" t="n">
-        <v>509.3385651713253</v>
+        <v>997.9777009248285</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.60286656009</v>
+        <v>862.8126902484196</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1239.624873386695</v>
+        <v>936.6885475509646</v>
       </c>
       <c r="C35" t="n">
-        <v>829.5002826999647</v>
+        <v>936.6885475509646</v>
       </c>
       <c r="D35" t="n">
-        <v>829.5002826999647</v>
+        <v>936.6885475509646</v>
       </c>
       <c r="E35" t="n">
-        <v>415.1600672168614</v>
+        <v>522.3483320678613</v>
       </c>
       <c r="F35" t="n">
-        <v>415.1600672168614</v>
+        <v>101.3179200215488</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606871</v>
@@ -6940,13 +6940,13 @@
         <v>167.5334271492895</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752961</v>
+        <v>372.259305875296</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879074</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576256</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="W35" t="n">
-        <v>1640.561546438604</v>
+        <v>1346.909727215454</v>
       </c>
       <c r="X35" t="n">
-        <v>1640.561546438604</v>
+        <v>1346.909727215454</v>
       </c>
       <c r="Y35" t="n">
-        <v>1239.624873386695</v>
+        <v>1346.909727215454</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J36" t="n">
-        <v>208.7594707336913</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K36" t="n">
-        <v>352.4814632649828</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L36" t="n">
-        <v>564.4940477866401</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M36" t="n">
-        <v>819.7422655456081</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N36" t="n">
-        <v>1087.581645304757</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O36" t="n">
-        <v>1323.603334058737</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P36" t="n">
-        <v>1505.20165549492</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R36" t="n">
         <v>2024.321847303436</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>890.9092815057879</v>
+        <v>373.1237555056924</v>
       </c>
       <c r="C37" t="n">
-        <v>719.8159090675044</v>
+        <v>373.1237555056924</v>
       </c>
       <c r="D37" t="n">
-        <v>719.8159090675044</v>
+        <v>373.1237555056924</v>
       </c>
       <c r="E37" t="n">
-        <v>596.1959494177233</v>
+        <v>373.1237555056924</v>
       </c>
       <c r="F37" t="n">
-        <v>431.5648235283147</v>
+        <v>373.1237555056924</v>
       </c>
       <c r="G37" t="n">
-        <v>265.3685283624266</v>
+        <v>206.9274603398043</v>
       </c>
       <c r="H37" t="n">
-        <v>125.1329440640648</v>
+        <v>66.69187604144258</v>
       </c>
       <c r="I37" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909249</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1925459421785</v>
+        <v>272.6851259496611</v>
       </c>
       <c r="L37" t="n">
-        <v>561.0005930021775</v>
+        <v>372.1997937892741</v>
       </c>
       <c r="M37" t="n">
-        <v>1012.210811388058</v>
+        <v>823.4100121751546</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.145037964104</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O37" t="n">
-        <v>1541.657620062865</v>
+        <v>1667.931580268702</v>
       </c>
       <c r="P37" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
@@ -7125,22 +7125,22 @@
         <v>1856.300096062671</v>
       </c>
       <c r="T37" t="n">
-        <v>1856.300096062671</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U37" t="n">
-        <v>1856.300096062671</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.414351002193</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>1303.344686511068</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X37" t="n">
-        <v>1303.344686511068</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="Y37" t="n">
-        <v>1078.608987899832</v>
+        <v>560.8234618997368</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1239.624873386694</v>
+        <v>1148.608230499482</v>
       </c>
       <c r="C38" t="n">
-        <v>829.5002826999643</v>
+        <v>865.9807788993206</v>
       </c>
       <c r="D38" t="n">
-        <v>829.5002826999643</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="E38" t="n">
-        <v>829.5002826999643</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F38" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H38" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.6457459074655</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752964</v>
+        <v>372.259305875296</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576256</v>
@@ -7198,28 +7198,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R38" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V38" t="n">
-        <v>2024.321847303435</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W38" t="n">
-        <v>1640.561546438604</v>
+        <v>1558.829410163971</v>
       </c>
       <c r="X38" t="n">
-        <v>1640.561546438604</v>
+        <v>1558.829410163971</v>
       </c>
       <c r="Y38" t="n">
-        <v>1239.624873386694</v>
+        <v>1558.829410163971</v>
       </c>
     </row>
     <row r="39">
@@ -7229,55 +7229,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090083</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C39" t="n">
-        <v>551.173218557954</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773464</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696744</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I39" t="n">
-        <v>43.01083102505504</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>108.5806640902073</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K39" t="n">
-        <v>352.4814632649826</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L39" t="n">
-        <v>564.4940477866398</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M39" t="n">
-        <v>819.7422655456079</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N39" t="n">
-        <v>1087.581645304757</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1323.603334058736</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P39" t="n">
-        <v>1505.201655494919</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
         <v>1939.686028373151</v>
@@ -7292,13 +7292,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W39" t="n">
-        <v>1161.199263941872</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.873282080765</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.471322444595</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>823.8861580598649</v>
+        <v>538.8106564672881</v>
       </c>
       <c r="C40" t="n">
-        <v>751.9702833370852</v>
+        <v>527.0881919207272</v>
       </c>
       <c r="D40" t="n">
-        <v>592.4756386599952</v>
+        <v>367.5935472436373</v>
       </c>
       <c r="E40" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F40" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G40" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606871</v>
@@ -7335,49 +7335,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L40" t="n">
-        <v>501.7072137817915</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M40" t="n">
-        <v>952.9174321676721</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N40" t="n">
-        <v>1391.851658743718</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O40" t="n">
-        <v>1541.657620062865</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P40" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q40" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>2024.321847303435</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S40" t="n">
-        <v>2024.321847303435</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T40" t="n">
-        <v>1789.276972616748</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="U40" t="n">
-        <v>1789.276972616748</v>
+        <v>1468.65958810401</v>
       </c>
       <c r="V40" t="n">
-        <v>1515.39122755627</v>
+        <v>1468.65958810401</v>
       </c>
       <c r="W40" t="n">
-        <v>1236.321563065145</v>
+        <v>1189.589923612884</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.321563065145</v>
+        <v>951.2460614725678</v>
       </c>
       <c r="Y40" t="n">
-        <v>1011.585864453909</v>
+        <v>726.5103628613325</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>461.5168489923811</v>
+        <v>929.0899571973276</v>
       </c>
       <c r="C41" t="n">
-        <v>461.5168489923811</v>
+        <v>518.9653665105977</v>
       </c>
       <c r="D41" t="n">
-        <v>461.5168489923811</v>
+        <v>114.5014366036582</v>
       </c>
       <c r="E41" t="n">
-        <v>461.5168489923811</v>
+        <v>114.5014366036582</v>
       </c>
       <c r="F41" t="n">
         <v>40.48643694606871</v>
@@ -7408,22 +7408,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O41" t="n">
         <v>1568.017893256777</v>
@@ -7435,28 +7435,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R41" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T41" t="n">
-        <v>1913.014225012515</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U41" t="n">
-        <v>1656.14172735275</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="V41" t="n">
-        <v>1656.14172735275</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="W41" t="n">
-        <v>1272.381426487918</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="X41" t="n">
-        <v>871.7380286568706</v>
+        <v>1330.026630249238</v>
       </c>
       <c r="Y41" t="n">
-        <v>871.7380286568706</v>
+        <v>929.0899571973276</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579544</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H42" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J42" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K42" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L42" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M42" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N42" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O42" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R42" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S42" t="n">
         <v>1939.686028373151</v>
@@ -7529,13 +7529,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W42" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807654</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445954</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>199.9810816231587</v>
+        <v>916.1419883504973</v>
       </c>
       <c r="C43" t="n">
-        <v>199.9810816231587</v>
+        <v>745.0486159122138</v>
       </c>
       <c r="D43" t="n">
-        <v>40.48643694606871</v>
+        <v>585.5539712351238</v>
       </c>
       <c r="E43" t="n">
-        <v>40.48643694606871</v>
+        <v>585.5539712351238</v>
       </c>
       <c r="F43" t="n">
-        <v>40.48643694606871</v>
+        <v>420.922845345715</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606871</v>
+        <v>254.7265501798269</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606871</v>
+        <v>114.4909658814652</v>
       </c>
       <c r="I43" t="n">
         <v>40.48643694606871</v>
@@ -7578,10 +7578,10 @@
         <v>815.6863250168145</v>
       </c>
       <c r="M43" t="n">
-        <v>1266.896543402695</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N43" t="n">
-        <v>1373.796468531156</v>
+        <v>1136.070278545363</v>
       </c>
       <c r="O43" t="n">
         <v>1541.657620062865</v>
@@ -7590,31 +7590,31 @@
         <v>1872.28415574375</v>
       </c>
       <c r="Q43" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="V43" t="n">
-        <v>1026.752091802768</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="W43" t="n">
-        <v>747.682427311642</v>
+        <v>1342.185556884858</v>
       </c>
       <c r="X43" t="n">
-        <v>509.3385651713253</v>
+        <v>1103.841694744542</v>
       </c>
       <c r="Y43" t="n">
-        <v>387.6807880172031</v>
+        <v>1103.841694744542</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>737.4533452648798</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="C44" t="n">
-        <v>327.3287545781499</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="D44" t="n">
-        <v>327.3287545781499</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="E44" t="n">
-        <v>327.3287545781499</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="F44" t="n">
         <v>327.3287545781499</v>
@@ -7645,19 +7645,19 @@
         <v>40.48643694606872</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879082</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
@@ -7675,25 +7675,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T44" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U44" t="n">
-        <v>1942.589711028803</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V44" t="n">
-        <v>1942.589711028803</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W44" t="n">
-        <v>1558.829410163971</v>
+        <v>821.9318111668024</v>
       </c>
       <c r="X44" t="n">
-        <v>1158.186012332924</v>
+        <v>748.3591666244623</v>
       </c>
       <c r="Y44" t="n">
-        <v>757.2493392810142</v>
+        <v>748.3591666244623</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>982.7996667264548</v>
       </c>
       <c r="N45" t="n">
-        <v>1250.639046485604</v>
+        <v>1399.455191901286</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.660735239583</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P45" t="n">
-        <v>1668.259056675766</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q45" t="n">
         <v>1918.251596225539</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>677.3573347038032</v>
+        <v>499.9697860934974</v>
       </c>
       <c r="C46" t="n">
-        <v>506.2639622655198</v>
+        <v>328.8764136552139</v>
       </c>
       <c r="D46" t="n">
-        <v>506.2639622655198</v>
+        <v>328.8764136552139</v>
       </c>
       <c r="E46" t="n">
-        <v>345.3531471338392</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F46" t="n">
-        <v>180.7220212444305</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H46" t="n">
         <v>40.48643694606872</v>
@@ -7806,25 +7806,25 @@
         <v>40.48643694606872</v>
       </c>
       <c r="J46" t="n">
-        <v>62.6091642990925</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>130.910988725128</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L46" t="n">
-        <v>544.4047677997639</v>
+        <v>295.4270201960774</v>
       </c>
       <c r="M46" t="n">
-        <v>995.6149861856445</v>
+        <v>746.6372385819579</v>
       </c>
       <c r="N46" t="n">
-        <v>1434.549212761691</v>
+        <v>1185.571465158004</v>
       </c>
       <c r="O46" t="n">
-        <v>1840.136554279192</v>
+        <v>1591.158806675506</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1921.785342356391</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7839,19 +7839,19 @@
         <v>1986.445114104106</v>
       </c>
       <c r="U46" t="n">
-        <v>1881.092011401003</v>
+        <v>1703.704462790697</v>
       </c>
       <c r="V46" t="n">
-        <v>1607.206266340525</v>
+        <v>1429.818717730219</v>
       </c>
       <c r="W46" t="n">
-        <v>1328.1366018494</v>
+        <v>1150.749053239094</v>
       </c>
       <c r="X46" t="n">
-        <v>1089.792739709083</v>
+        <v>912.4051910987771</v>
       </c>
       <c r="Y46" t="n">
-        <v>865.0570410978476</v>
+        <v>687.6694924875418</v>
       </c>
     </row>
   </sheetData>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.12864625545149</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K8" t="n">
-        <v>22.89962335916381</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L8" t="n">
-        <v>13.31283239473387</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M8" t="n">
         <v>1.857412192921856</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5.455334146684052</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P8" t="n">
-        <v>18.77004728651482</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q8" t="n">
         <v>33.80255651301093</v>
@@ -8613,10 +8613,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K10" t="n">
-        <v>25.11327702096816</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L10" t="n">
-        <v>19.90215841909198</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M10" t="n">
         <v>19.6511016040668</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21809620174884</v>
+        <v>31.21809620174887</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>6.228584518226647</v>
+        <v>6.228584518226675</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.3353227295276</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>81.66010830944111</v>
+        <v>28.97895970631623</v>
       </c>
       <c r="L13" t="n">
-        <v>24.86734198576572</v>
+        <v>71.02338042504292</v>
       </c>
       <c r="M13" t="n">
-        <v>69.42275263851189</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>66.36346275780022</v>
+        <v>66.36346275780019</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>7.333581672173004</v>
+        <v>83.28144447453252</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.81784642339689</v>
+        <v>27.81784642339691</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174884</v>
+        <v>31.21809620174887</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>6.228584518226654</v>
+        <v>6.228584518226675</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.3353227295276</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.11334984944294</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>81.66010830944113</v>
+        <v>81.66010830944099</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>71.02338042504283</v>
       </c>
       <c r="M16" t="n">
-        <v>69.42275263851191</v>
+        <v>23.26671419923461</v>
       </c>
       <c r="N16" t="n">
-        <v>66.36346275780024</v>
+        <v>66.36346275780011</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>7.333581672173011</v>
+        <v>7.33358167217304</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.22978162167557</v>
+        <v>27.81784642339691</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>2.59513657919355</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.02244808838245</v>
+        <v>160.0510694149253</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>99.57699224915731</v>
+        <v>331.0740987150402</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>5.945849128928533</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>54.02244808838296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>52.25121212550749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>336.7592364190517</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>144.5320371745757</v>
       </c>
       <c r="M22" t="n">
-        <v>332.2037401110348</v>
+        <v>332.2037401110347</v>
       </c>
       <c r="N22" t="n">
-        <v>85.63058488432517</v>
+        <v>331.0740987150401</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>148.1950605471548</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>15.65674446332956</v>
       </c>
       <c r="K25" t="n">
-        <v>89.58839339659433</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>279.1895560523378</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10047,13 +10047,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>199.4818942380354</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.3193388037198</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>102.1259648336998</v>
+        <v>229.6754195870699</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>12.33241430959868</v>
+        <v>239.1776382754175</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>403.8820839126365</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>108.8484968408679</v>
+        <v>144.3129145537885</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>263.5328115890082</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1907137812969</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>403.8820839126365</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>143.2061992167001</v>
       </c>
       <c r="L37" t="n">
-        <v>59.89230224281417</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>101.1907137812967</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>403.8820839126364</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,13 +10995,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>59.89230224281371</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>23.93045033463832</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.0847972377573</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11226,13 +11226,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631245</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>78.12986811408976</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.3193388037196</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>89.58839339659441</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>77.54825615474446</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.2240903115263</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>339.1284672235443</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23272,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>403.7480150306399</v>
+        <v>327.8001522282804</v>
       </c>
       <c r="H11" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.5793406133823</v>
+        <v>37.6314778110228</v>
       </c>
       <c r="T11" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U11" t="n">
         <v>254.4184479242485</v>
@@ -23320,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>303.9748350538235</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>320.6891010503774</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.9794435190312</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>62.95213950687126</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>69.85113090434479</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -23348,7 +23348,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696096</v>
       </c>
       <c r="G12" t="n">
         <v>105.4424218008434</v>
@@ -23357,7 +23357,7 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>4.090887922119279</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T12" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435686012</v>
       </c>
       <c r="U12" t="n">
-        <v>119.3980064140959</v>
+        <v>195.3458692164555</v>
       </c>
       <c r="V12" t="n">
-        <v>135.6265489345369</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>135.1529737786749</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>107.6678444861779</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -23430,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.1773242806354</v>
+        <v>89.22946147827595</v>
       </c>
       <c r="H13" t="n">
-        <v>144.5500124639718</v>
+        <v>68.6021496616123</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1365670983785</v>
+        <v>27.18870429601901</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.4092273259303</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S13" t="n">
         <v>177.547131831091</v>
       </c>
       <c r="T13" t="n">
-        <v>168.5468781217832</v>
+        <v>235.4417556781015</v>
       </c>
       <c r="U13" t="n">
-        <v>204.0004542924461</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V13" t="n">
-        <v>195.1990248075137</v>
+        <v>204.252010053555</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3311050438548</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -23509,10 +23509,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>327.8001522282804</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H14" t="n">
-        <v>282.8206327720482</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.63147781102271</v>
+        <v>37.63147781102289</v>
       </c>
       <c r="T14" t="n">
-        <v>140.1275091645408</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218891</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>303.9748350538237</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>380.8034795100918</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23585,16 +23585,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>31.92241821696105</v>
       </c>
       <c r="G15" t="n">
-        <v>105.4424218008434</v>
+        <v>29.49455899848397</v>
       </c>
       <c r="H15" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>4.090887922119279</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>31.14049703329628</v>
+        <v>98.03537458961453</v>
       </c>
       <c r="T15" t="n">
-        <v>79.87475435686004</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U15" t="n">
-        <v>119.3980064140959</v>
+        <v>195.3458692164555</v>
       </c>
       <c r="V15" t="n">
-        <v>135.6265489345369</v>
+        <v>148.7704221026976</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -23658,19 +23658,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>91.00482067400083</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>83.35384417800414</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>87.03695182815507</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>89.22946147827587</v>
+        <v>89.22946147827604</v>
       </c>
       <c r="H16" t="n">
-        <v>144.5500124639718</v>
+        <v>77.65513490765363</v>
       </c>
       <c r="I16" t="n">
         <v>103.1365670983785</v>
@@ -23703,10 +23703,10 @@
         <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
-        <v>177.547131831091</v>
+        <v>101.5992690287316</v>
       </c>
       <c r="T16" t="n">
-        <v>235.4417556781015</v>
+        <v>159.4938928757421</v>
       </c>
       <c r="U16" t="n">
         <v>279.9483170948056</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.2302862493754</v>
+        <v>396.482158590158</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.5938681247176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.8342101144169</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>87.27921799467811</v>
       </c>
       <c r="T17" t="n">
         <v>211.0230938862255</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.8248987652832</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.46132517089387</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>21.8784195966733</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>153.3335659764133</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>127.9237977723666</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>62.96364109211225</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.659613711565</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.9470948589635</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.56759834851383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.13107755663445</v>
+        <v>43.13107755663447</v>
       </c>
       <c r="S19" t="n">
         <v>168.5248485501084</v>
       </c>
       <c r="T19" t="n">
-        <v>233.2297196102549</v>
+        <v>75.36776140744328</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>374.6641416262716</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5938681247176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.566144623103824</v>
+        <v>6.566144623103852</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>211.0230938862255</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3261161717747</v>
+        <v>121.8590186371416</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.46132517089387</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>86.56515504752022</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>153.3335659764133</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>99.5994884853296</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>68.93604775733542</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.4567772564738</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>52.52986670785401</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.659613711565</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.9470948589635</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.56759834851383</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>43.13107755663447</v>
       </c>
       <c r="S22" t="n">
         <v>168.5248485501084</v>
       </c>
       <c r="T22" t="n">
-        <v>233.2297196102549</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9200783364927</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>332.2240363246372</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,16 +24214,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>68.3807137066982</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.8004861190321</v>
@@ -24265,16 +24265,16 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681615</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.4979658673368</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>67.59008136074851</v>
+        <v>32.24659711322906</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>345.0498293029513</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>347.4423644965771</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>62.88690373814856</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,10 +24615,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>27.94748605903877</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>185.2127712678319</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
         <v>283.9738944557603</v>
@@ -24733,22 +24733,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>58.31284851764229</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>129.384562280294</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>177.3105238292401</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>28.57448956665735</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>225.6382123715397</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>27.947486059039</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>88.67498105547816</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>315.3615750048105</v>
+        <v>342.0914062724096</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3037726831681</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91794692708044</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>57.85665734239603</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>126.222167695703</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>321.984869602388</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.8004861190321</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>98.18572273834877</v>
+        <v>157.7771988128054</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>166.3415337283568</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>343.5452582648356</v>
       </c>
       <c r="G41" t="n">
         <v>402.3145745171349</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>99.60594005102077</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681616</v>
+        <v>10.53555840077367</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.0471422425419</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>386.5209337918715</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,7 +25876,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>402.3145745171349</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>323.8000457558203</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>38.3299622525392</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
         <v>83.80004204681616</v>
@@ -26079,7 +26079,7 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>175.6136731242028</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>200228.0487721028</v>
+        <v>200228.0487721027</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>200228.0487721027</v>
+        <v>200228.0487721026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481635.8293489289</v>
+        <v>481635.8293489288</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481635.8293489289</v>
+        <v>481635.8293489288</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>551899.7526748948</v>
+        <v>551899.7526748946</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>551899.7526748946</v>
+        <v>551899.7526748945</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>551899.7526748945</v>
+        <v>551899.7526748946</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>551899.7526748945</v>
+        <v>551899.7526748946</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43037.1278531956</v>
+        <v>43037.12785319559</v>
       </c>
       <c r="C2" t="n">
-        <v>43178.37460686839</v>
+        <v>43178.3746068684</v>
       </c>
       <c r="D2" t="n">
         <v>43178.3746068684</v>
       </c>
       <c r="E2" t="n">
-        <v>62862.03491898833</v>
+        <v>62862.03491898831</v>
       </c>
       <c r="F2" t="n">
-        <v>62862.0349189883</v>
+        <v>62862.03491898824</v>
       </c>
       <c r="G2" t="n">
-        <v>149698.6132043989</v>
+        <v>149698.613204399</v>
       </c>
       <c r="H2" t="n">
         <v>149698.6132043989</v>
@@ -26355,7 +26355,7 @@
         <v>171267.2805630951</v>
       </c>
       <c r="P2" t="n">
-        <v>171267.2805630951</v>
+        <v>171267.2805630952</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97073.6741411812</v>
+        <v>97073.67414118107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>317479.1659607943</v>
+        <v>317479.1659607942</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>75218.59050254048</v>
+        <v>75218.59050254049</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18926.51120179923</v>
+        <v>18926.5112017992</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82768.17471853798</v>
+        <v>82768.17471853794</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>7921.405249759214</v>
       </c>
       <c r="D4" t="n">
-        <v>7921.405249759214</v>
+        <v>7921.405249759217</v>
       </c>
       <c r="E4" t="n">
         <v>4312.268799558472</v>
       </c>
       <c r="F4" t="n">
-        <v>4312.268799558472</v>
+        <v>4312.26879955847</v>
       </c>
       <c r="G4" t="n">
         <v>15292.48978543348</v>
@@ -26444,7 +26444,7 @@
         <v>18387.66759391808</v>
       </c>
       <c r="K4" t="n">
-        <v>18387.66759391808</v>
+        <v>18387.66759391807</v>
       </c>
       <c r="L4" t="n">
         <v>18387.66759391807</v>
@@ -26456,10 +26456,10 @@
         <v>18387.66759391807</v>
       </c>
       <c r="O4" t="n">
+        <v>18387.66759391807</v>
+      </c>
+      <c r="P4" t="n">
         <v>18387.66759391808</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18387.66759391807</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.071166703498</v>
+        <v>9460.071166703488</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.071166703498</v>
+        <v>9460.071166703485</v>
       </c>
       <c r="G5" t="n">
-        <v>36629.93722296765</v>
+        <v>36629.93722296764</v>
       </c>
       <c r="H5" t="n">
         <v>36629.93722296764</v>
       </c>
       <c r="I5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="J5" t="n">
         <v>43385.32273194157</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194157</v>
@@ -26505,10 +26505,10 @@
         <v>43385.32273194157</v>
       </c>
       <c r="N5" t="n">
+        <v>43385.32273194157</v>
+      </c>
+      <c r="O5" t="n">
         <v>43385.32273194156</v>
-      </c>
-      <c r="O5" t="n">
-        <v>43385.32273194157</v>
       </c>
       <c r="P5" t="n">
         <v>43385.32273194157</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118396.0242594537</v>
+        <v>-119771.6886141712</v>
       </c>
       <c r="C6" t="n">
-        <v>-9731.494795552826</v>
+        <v>-11106.32828701346</v>
       </c>
       <c r="D6" t="n">
-        <v>-1194.332181010031</v>
+        <v>-2569.165672470677</v>
       </c>
       <c r="E6" t="n">
-        <v>-47983.97918845483</v>
+        <v>-49243.02644278524</v>
       </c>
       <c r="F6" t="n">
-        <v>49089.69495272633</v>
+        <v>47830.64769839576</v>
       </c>
       <c r="G6" t="n">
-        <v>-219702.9797647965</v>
+        <v>-220451.223617448</v>
       </c>
       <c r="H6" t="n">
-        <v>97776.18619599781</v>
+        <v>97027.94234334611</v>
       </c>
       <c r="I6" t="n">
-        <v>34275.69973469497</v>
+        <v>33654.33039591795</v>
       </c>
       <c r="J6" t="n">
-        <v>109494.2902372355</v>
+        <v>108872.9208984585</v>
       </c>
       <c r="K6" t="n">
-        <v>109494.2902372355</v>
+        <v>108872.9208984585</v>
       </c>
       <c r="L6" t="n">
-        <v>109494.2902372355</v>
+        <v>108872.9208984586</v>
       </c>
       <c r="M6" t="n">
-        <v>90567.77903543628</v>
+        <v>89946.40969665931</v>
       </c>
       <c r="N6" t="n">
-        <v>109494.2902372354</v>
+        <v>108872.9208984586</v>
       </c>
       <c r="O6" t="n">
-        <v>26726.11551869747</v>
+        <v>26104.74617992057</v>
       </c>
       <c r="P6" t="n">
-        <v>109494.2902372355</v>
+        <v>108872.9208984586</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>129.5275934917073</v>
       </c>
       <c r="E3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="F3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="G3" t="n">
-        <v>509.2243689178962</v>
+        <v>509.224368917896</v>
       </c>
       <c r="H3" t="n">
-        <v>509.2243689178961</v>
+        <v>509.224368917896</v>
       </c>
       <c r="I3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040984</v>
       </c>
       <c r="J3" t="n">
         <v>578.6986538040984</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235958</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="F4" t="n">
-        <v>75.94786280235958</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="G4" t="n">
-        <v>419.882335206538</v>
+        <v>419.8823352065379</v>
       </c>
       <c r="H4" t="n">
-        <v>419.882335206538</v>
+        <v>419.8823352065379</v>
       </c>
       <c r="I4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.080461825859</v>
       </c>
       <c r="J4" t="n">
         <v>506.080461825859</v>
       </c>
       <c r="K4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="L4" t="n">
         <v>506.0804618258589</v>
@@ -26825,10 +26825,10 @@
         <v>506.0804618258589</v>
       </c>
       <c r="N4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="O4" t="n">
         <v>506.0804618258588</v>
-      </c>
-      <c r="O4" t="n">
-        <v>506.0804618258589</v>
       </c>
       <c r="P4" t="n">
         <v>506.080461825859</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92.6027325780191</v>
+        <v>92.60273257801896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>287.0940428481698</v>
+        <v>287.0940428481697</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235958</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>86.19812661932104</v>
+        <v>86.1981266193211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235962</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>343.9344724041786</v>
+        <v>343.9344724041784</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>75.94786280235958</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H8" t="n">
-        <v>5.332761675766619</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I8" t="n">
         <v>20.07482431392581</v>
@@ -31527,10 +31527,10 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K8" t="n">
-        <v>66.23676631405331</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L8" t="n">
-        <v>82.17256566811095</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M8" t="n">
         <v>91.4328122641236</v>
@@ -31539,13 +31539,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>87.73444147909908</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P8" t="n">
-        <v>74.87931599436934</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.23124788614112</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R8" t="n">
         <v>32.70929726501893</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H9" t="n">
         <v>2.690752461025844</v>
@@ -31627,7 +31627,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R9" t="n">
-        <v>17.29804352328877</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S9" t="n">
         <v>5.174993947522452</v>
@@ -31636,7 +31636,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I10" t="n">
-        <v>7.024217692960128</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J10" t="n">
         <v>16.51370646860668</v>
@@ -31691,19 +31691,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M10" t="n">
-        <v>36.61384089471325</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N10" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O10" t="n">
-        <v>33.0146725181814</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P10" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.5586666172478</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R10" t="n">
         <v>10.50235208868826</v>
@@ -31712,7 +31712,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U10" t="n">
         <v>0.01274041903197122</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561857</v>
+        <v>0.8929862354561852</v>
       </c>
       <c r="H11" t="n">
-        <v>9.145295283865664</v>
+        <v>9.145295283865659</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242463</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154952</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K11" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L11" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N11" t="n">
-        <v>159.337766458036</v>
+        <v>159.3377664580359</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P11" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.43246733411925</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297468</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S11" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T11" t="n">
-        <v>3.909047245709455</v>
+        <v>3.909047245709453</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07143889883649485</v>
+        <v>0.0714388988364948</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4777897579612982</v>
+        <v>0.477789757961298</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I12" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J12" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177334</v>
       </c>
       <c r="K12" t="n">
-        <v>77.15256806518035</v>
+        <v>77.1525680651803</v>
       </c>
       <c r="L12" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M12" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N12" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O12" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P12" t="n">
-        <v>91.23688807946932</v>
+        <v>91.23688807946927</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.98944348993695</v>
+        <v>60.98944348993692</v>
       </c>
       <c r="R12" t="n">
-        <v>29.66487637587781</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S12" t="n">
-        <v>8.874735197219723</v>
+        <v>8.874735197219717</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03143353670798016</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765555</v>
       </c>
       <c r="H13" t="n">
-        <v>3.561368178626107</v>
+        <v>3.561368178626105</v>
       </c>
       <c r="I13" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J13" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K13" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L13" t="n">
-        <v>59.55277627121812</v>
+        <v>59.55277627121809</v>
       </c>
       <c r="M13" t="n">
-        <v>62.79005266262772</v>
+        <v>62.79005266262768</v>
       </c>
       <c r="N13" t="n">
-        <v>61.29704555297879</v>
+        <v>61.29704555297875</v>
       </c>
       <c r="O13" t="n">
-        <v>56.61774278249355</v>
+        <v>56.61774278249352</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773174</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.54167923652868</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797791</v>
+        <v>6.980718607797787</v>
       </c>
       <c r="T13" t="n">
-        <v>1.711495954963465</v>
+        <v>1.711495954963464</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561856</v>
+        <v>0.8929862354561852</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865664</v>
+        <v>9.145295283865659</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242463</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J14" t="n">
-        <v>75.7910905015495</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K14" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L14" t="n">
         <v>140.9199253517521</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N14" t="n">
-        <v>159.337766458036</v>
+        <v>159.3377664580359</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P14" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411924</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297467</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S14" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T14" t="n">
-        <v>3.909047245709455</v>
+        <v>3.909047245709453</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07143889883649483</v>
+        <v>0.0714388988364948</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4777897579612982</v>
+        <v>0.477789757961298</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731486</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I15" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J15" t="n">
-        <v>45.14065428177336</v>
+        <v>45.14065428177334</v>
       </c>
       <c r="K15" t="n">
-        <v>77.15256806518033</v>
+        <v>77.1525680651803</v>
       </c>
       <c r="L15" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M15" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N15" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O15" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946931</v>
+        <v>91.23688807946927</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.98944348993695</v>
+        <v>60.98944348993692</v>
       </c>
       <c r="R15" t="n">
-        <v>29.66487637587781</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219721</v>
+        <v>8.874735197219717</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03143353670798016</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765555</v>
       </c>
       <c r="H16" t="n">
-        <v>3.561368178626107</v>
+        <v>3.561368178626105</v>
       </c>
       <c r="I16" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J16" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198528</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L16" t="n">
-        <v>59.55277627121811</v>
+        <v>59.55277627121809</v>
       </c>
       <c r="M16" t="n">
-        <v>62.79005266262772</v>
+        <v>62.79005266262768</v>
       </c>
       <c r="N16" t="n">
-        <v>61.29704555297879</v>
+        <v>61.29704555297875</v>
       </c>
       <c r="O16" t="n">
-        <v>56.61774278249354</v>
+        <v>56.61774278249352</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773177</v>
+        <v>48.44625996773174</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652868</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S16" t="n">
-        <v>6.98071860779779</v>
+        <v>6.980718607797787</v>
       </c>
       <c r="T16" t="n">
-        <v>1.711495954963465</v>
+        <v>1.711495954963464</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.047133141378476</v>
+        <v>2.047133141378475</v>
       </c>
       <c r="H17" t="n">
-        <v>20.96520228414232</v>
+        <v>20.96520228414231</v>
       </c>
       <c r="I17" t="n">
-        <v>78.92210043299376</v>
+        <v>78.92210043299372</v>
       </c>
       <c r="J17" t="n">
         <v>173.7478664580715</v>
       </c>
       <c r="K17" t="n">
-        <v>260.4030123326225</v>
+        <v>260.4030123326224</v>
       </c>
       <c r="L17" t="n">
-        <v>323.0529632080841</v>
+        <v>323.0529632080839</v>
       </c>
       <c r="M17" t="n">
-        <v>359.4586672110735</v>
+        <v>359.4586672110734</v>
       </c>
       <c r="N17" t="n">
-        <v>365.2750842490152</v>
+        <v>365.275084249015</v>
       </c>
       <c r="O17" t="n">
-        <v>344.9189040744329</v>
+        <v>344.9189040744328</v>
       </c>
       <c r="P17" t="n">
-        <v>294.3803046466517</v>
+        <v>294.3803046466516</v>
       </c>
       <c r="Q17" t="n">
-        <v>221.067349021035</v>
+        <v>221.0673490210349</v>
       </c>
       <c r="R17" t="n">
-        <v>128.5932271921158</v>
+        <v>128.5932271921157</v>
       </c>
       <c r="S17" t="n">
-        <v>46.64904645916206</v>
+        <v>46.64904645916204</v>
       </c>
       <c r="T17" t="n">
-        <v>8.961325326384282</v>
+        <v>8.961325326384278</v>
       </c>
       <c r="U17" t="n">
-        <v>0.163770651310278</v>
+        <v>0.1637706513102779</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.095312793521513</v>
+        <v>1.095312793521512</v>
       </c>
       <c r="H18" t="n">
         <v>10.57841566374724</v>
       </c>
       <c r="I18" t="n">
-        <v>37.71142732080647</v>
+        <v>37.71142732080645</v>
       </c>
       <c r="J18" t="n">
-        <v>103.4830389703812</v>
+        <v>103.4830389703811</v>
       </c>
       <c r="K18" t="n">
-        <v>176.8689961363225</v>
+        <v>176.8689961363224</v>
       </c>
       <c r="L18" t="n">
-        <v>237.8221922950986</v>
+        <v>237.8221922950985</v>
       </c>
       <c r="M18" t="n">
-        <v>277.5272810602534</v>
+        <v>277.5272810602532</v>
       </c>
       <c r="N18" t="n">
-        <v>284.8726023817201</v>
+        <v>284.87260238172</v>
       </c>
       <c r="O18" t="n">
-        <v>260.6027767989539</v>
+        <v>260.6027767989538</v>
       </c>
       <c r="P18" t="n">
         <v>209.1567035278053</v>
@@ -32338,16 +32338,16 @@
         <v>139.815717292325</v>
       </c>
       <c r="R18" t="n">
-        <v>68.00547326794096</v>
+        <v>68.00547326794093</v>
       </c>
       <c r="S18" t="n">
-        <v>20.34495473931405</v>
+        <v>20.34495473931404</v>
       </c>
       <c r="T18" t="n">
-        <v>4.414879198448551</v>
+        <v>4.414879198448549</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0720600522053627</v>
+        <v>0.07206005220536267</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9182734521470258</v>
+        <v>0.9182734521470254</v>
       </c>
       <c r="H19" t="n">
-        <v>8.164285783634472</v>
+        <v>8.164285783634469</v>
       </c>
       <c r="I19" t="n">
-        <v>27.61498708820329</v>
+        <v>27.61498708820328</v>
       </c>
       <c r="J19" t="n">
-        <v>64.92193306679472</v>
+        <v>64.92193306679469</v>
       </c>
       <c r="K19" t="n">
         <v>106.6866792585362</v>
       </c>
       <c r="L19" t="n">
-        <v>136.5222185128406</v>
+        <v>136.5222185128405</v>
       </c>
       <c r="M19" t="n">
-        <v>143.9435375942833</v>
+        <v>143.9435375942832</v>
       </c>
       <c r="N19" t="n">
         <v>140.5208819999172</v>
@@ -32414,19 +32414,19 @@
         <v>111.0610000669457</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.89287970660232</v>
+        <v>76.89287970660229</v>
       </c>
       <c r="R19" t="n">
-        <v>41.28891358471989</v>
+        <v>41.28891358471988</v>
       </c>
       <c r="S19" t="n">
-        <v>16.00300188878044</v>
+        <v>16.00300188878043</v>
       </c>
       <c r="T19" t="n">
-        <v>3.923532022810019</v>
+        <v>3.923532022810017</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05008764284438329</v>
+        <v>0.05008764284438326</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.96520228414231</v>
       </c>
       <c r="I20" t="n">
-        <v>78.92210043299374</v>
+        <v>78.92210043299372</v>
       </c>
       <c r="J20" t="n">
         <v>173.7478664580715</v>
@@ -32478,7 +32478,7 @@
         <v>260.4030123326224</v>
       </c>
       <c r="L20" t="n">
-        <v>323.052963208084</v>
+        <v>323.0529632080839</v>
       </c>
       <c r="M20" t="n">
         <v>359.4586672110734</v>
@@ -32490,22 +32490,22 @@
         <v>344.9189040744328</v>
       </c>
       <c r="P20" t="n">
-        <v>294.3803046466517</v>
+        <v>294.3803046466516</v>
       </c>
       <c r="Q20" t="n">
-        <v>221.067349021035</v>
+        <v>221.0673490210349</v>
       </c>
       <c r="R20" t="n">
-        <v>128.5932271921158</v>
+        <v>128.5932271921157</v>
       </c>
       <c r="S20" t="n">
-        <v>46.64904645916205</v>
+        <v>46.64904645916204</v>
       </c>
       <c r="T20" t="n">
-        <v>8.96132532638428</v>
+        <v>8.961325326384278</v>
       </c>
       <c r="U20" t="n">
-        <v>0.163770651310278</v>
+        <v>0.1637706513102779</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>10.57841566374724</v>
       </c>
       <c r="I21" t="n">
-        <v>37.71142732080646</v>
+        <v>37.71142732080645</v>
       </c>
       <c r="J21" t="n">
         <v>103.4830389703811</v>
       </c>
       <c r="K21" t="n">
-        <v>176.8689961363225</v>
+        <v>176.8689961363224</v>
       </c>
       <c r="L21" t="n">
-        <v>237.8221922950986</v>
+        <v>237.8221922950985</v>
       </c>
       <c r="M21" t="n">
-        <v>277.5272810602533</v>
+        <v>277.5272810602532</v>
       </c>
       <c r="N21" t="n">
         <v>284.87260238172</v>
       </c>
       <c r="O21" t="n">
-        <v>260.6027767989539</v>
+        <v>260.6027767989538</v>
       </c>
       <c r="P21" t="n">
         <v>209.1567035278053</v>
@@ -32575,16 +32575,16 @@
         <v>139.815717292325</v>
       </c>
       <c r="R21" t="n">
-        <v>68.00547326794094</v>
+        <v>68.00547326794093</v>
       </c>
       <c r="S21" t="n">
         <v>20.34495473931404</v>
       </c>
       <c r="T21" t="n">
-        <v>4.41487919844855</v>
+        <v>4.414879198448549</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07206005220536268</v>
+        <v>0.07206005220536267</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9182734521470256</v>
+        <v>0.9182734521470254</v>
       </c>
       <c r="H22" t="n">
-        <v>8.164285783634471</v>
+        <v>8.164285783634469</v>
       </c>
       <c r="I22" t="n">
-        <v>27.61498708820329</v>
+        <v>27.61498708820328</v>
       </c>
       <c r="J22" t="n">
-        <v>64.92193306679471</v>
+        <v>64.92193306679469</v>
       </c>
       <c r="K22" t="n">
         <v>106.6866792585362</v>
@@ -32639,7 +32639,7 @@
         <v>136.5222185128405</v>
       </c>
       <c r="M22" t="n">
-        <v>143.9435375942833</v>
+        <v>143.9435375942832</v>
       </c>
       <c r="N22" t="n">
         <v>140.5208819999172</v>
@@ -32651,19 +32651,19 @@
         <v>111.0610000669457</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.8928797066023</v>
+        <v>76.89287970660229</v>
       </c>
       <c r="R22" t="n">
-        <v>41.28891358471989</v>
+        <v>41.28891358471988</v>
       </c>
       <c r="S22" t="n">
         <v>16.00300188878043</v>
       </c>
       <c r="T22" t="n">
-        <v>3.923532022810018</v>
+        <v>3.923532022810017</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05008764284438327</v>
+        <v>0.05008764284438326</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,37 +32706,37 @@
         <v>23.82551794279888</v>
       </c>
       <c r="I23" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932666</v>
       </c>
       <c r="J23" t="n">
-        <v>197.4525622846457</v>
+        <v>197.4525622846456</v>
       </c>
       <c r="K23" t="n">
-        <v>295.9302065681733</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L23" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866945</v>
       </c>
       <c r="M23" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835332</v>
       </c>
       <c r="N23" t="n">
-        <v>415.1101408840194</v>
+        <v>415.1101408840192</v>
       </c>
       <c r="O23" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990363</v>
       </c>
       <c r="P23" t="n">
-        <v>334.5430745340568</v>
+        <v>334.5430745340567</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.2279165868838</v>
+        <v>251.2279165868837</v>
       </c>
       <c r="R23" t="n">
         <v>146.137404269434</v>
       </c>
       <c r="S23" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195335</v>
       </c>
       <c r="T23" t="n">
         <v>10.18393309357765</v>
@@ -32785,7 +32785,7 @@
         <v>12.0216456195908</v>
       </c>
       <c r="I24" t="n">
-        <v>42.85645690907711</v>
+        <v>42.8564569090771</v>
       </c>
       <c r="J24" t="n">
         <v>117.601393411265</v>
@@ -32797,31 +32797,31 @@
         <v>270.2686495903009</v>
       </c>
       <c r="M24" t="n">
-        <v>315.3907663232337</v>
+        <v>315.3907663232336</v>
       </c>
       <c r="N24" t="n">
         <v>323.7382214332947</v>
       </c>
       <c r="O24" t="n">
-        <v>296.1572252161409</v>
+        <v>296.1572252161408</v>
       </c>
       <c r="P24" t="n">
         <v>237.69228291814</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.8909964180612</v>
+        <v>158.8909964180611</v>
       </c>
       <c r="R24" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915868</v>
       </c>
       <c r="S24" t="n">
         <v>23.12064904585241</v>
       </c>
       <c r="T24" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056285</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.08189131893454227</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>1.0435549494828</v>
       </c>
       <c r="H25" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219813</v>
       </c>
       <c r="I25" t="n">
-        <v>31.38254338990096</v>
+        <v>31.38254338990095</v>
       </c>
       <c r="J25" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843398</v>
       </c>
       <c r="K25" t="n">
-        <v>121.2421114035472</v>
+        <v>121.2421114035471</v>
       </c>
       <c r="L25" t="n">
         <v>155.1481603985611</v>
@@ -32882,13 +32882,13 @@
         <v>159.6923678603999</v>
       </c>
       <c r="O25" t="n">
-        <v>147.5017486778054</v>
+        <v>147.5017486778053</v>
       </c>
       <c r="P25" t="n">
         <v>126.2132277083561</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441886</v>
       </c>
       <c r="R25" t="n">
         <v>46.92202527401754</v>
@@ -32897,7 +32897,7 @@
         <v>18.18631671053207</v>
       </c>
       <c r="T25" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244691</v>
       </c>
       <c r="U25" t="n">
         <v>0.05692117906269827</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241574</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K11" t="n">
-        <v>24.45480817519275</v>
+        <v>24.45480817519268</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890735</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950053</v>
       </c>
       <c r="N11" t="n">
-        <v>66.42547570141666</v>
+        <v>66.42547570141657</v>
       </c>
       <c r="O11" t="n">
-        <v>57.26835895343542</v>
+        <v>57.26835895343531</v>
       </c>
       <c r="P11" t="n">
-        <v>34.76317361050977</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.398662934967206</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056496</v>
+        <v>21.32678528056491</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105478</v>
+        <v>47.62662517105471</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958344</v>
+        <v>63.49674396958336</v>
       </c>
       <c r="N12" t="n">
-        <v>71.071759489351</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985328</v>
+        <v>55.92685871985321</v>
       </c>
       <c r="P12" t="n">
-        <v>36.97725307666558</v>
+        <v>36.97725307666552</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098233</v>
+        <v>4.296824985098198</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.54459321251301</v>
+        <v>42.54459321251299</v>
       </c>
       <c r="K13" t="n">
-        <v>75.94786280235958</v>
+        <v>23.26671419923465</v>
       </c>
       <c r="L13" t="n">
-        <v>29.79182436308233</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="M13" t="n">
-        <v>75.94786280235958</v>
+        <v>6.525110163847636</v>
       </c>
       <c r="N13" t="n">
-        <v>75.94786280235958</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5428447094972242</v>
+        <v>0.5428447094971887</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241559</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519274</v>
+        <v>24.45480817519268</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890732</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950062</v>
+        <v>63.51034485950053</v>
       </c>
       <c r="N14" t="n">
-        <v>66.42547570141666</v>
+        <v>66.42547570141657</v>
       </c>
       <c r="O14" t="n">
-        <v>57.2683589534354</v>
+        <v>57.26835895343531</v>
       </c>
       <c r="P14" t="n">
-        <v>34.76317361050977</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.398662934967192</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056494</v>
+        <v>21.32678528056491</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105477</v>
+        <v>47.62662517105471</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958343</v>
+        <v>63.49674396958336</v>
       </c>
       <c r="N15" t="n">
-        <v>71.071759489351</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985326</v>
+        <v>55.92685871985321</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666556</v>
+        <v>36.97725307666552</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098226</v>
+        <v>4.296824985098198</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>42.54459321251299</v>
       </c>
       <c r="K16" t="n">
-        <v>75.94786280235958</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="L16" t="n">
-        <v>4.924482377316608</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="M16" t="n">
-        <v>75.94786280235958</v>
+        <v>29.79182436308225</v>
       </c>
       <c r="N16" t="n">
-        <v>75.94786280235958</v>
+        <v>75.94786280235941</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5428447094972171</v>
+        <v>0.5428447094971887</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.4119351982787</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.4242751247636</v>
+        <v>100.4242751247635</v>
       </c>
       <c r="K17" t="n">
-        <v>171.2666226594054</v>
+        <v>171.2666226594052</v>
       </c>
       <c r="L17" t="n">
-        <v>227.5675651452393</v>
+        <v>227.5675651452391</v>
       </c>
       <c r="M17" t="n">
-        <v>266.1684427540281</v>
+        <v>266.1684427540279</v>
       </c>
       <c r="N17" t="n">
-        <v>272.3627934923958</v>
+        <v>272.3627934923957</v>
       </c>
       <c r="O17" t="n">
-        <v>251.7291284486498</v>
+        <v>251.7291284486496</v>
       </c>
       <c r="P17" t="n">
-        <v>200.7309413657676</v>
+        <v>200.7309413657674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.033544621883</v>
+        <v>131.0335446218829</v>
       </c>
       <c r="R17" t="n">
-        <v>41.28108437739228</v>
+        <v>41.28108437739222</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>17.17032185484425</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>298.2435011548592</v>
+        <v>298.2435011548591</v>
       </c>
       <c r="K18" t="n">
-        <v>121.0432133517071</v>
+        <v>121.043213351707</v>
       </c>
       <c r="L18" t="n">
-        <v>181.7076684842496</v>
+        <v>181.7076684842495</v>
       </c>
       <c r="M18" t="n">
-        <v>219.9629973218359</v>
+        <v>219.9629973218358</v>
       </c>
       <c r="N18" t="n">
-        <v>231.6792089879701</v>
+        <v>231.67920898797</v>
       </c>
       <c r="O18" t="n">
-        <v>202.8512977989539</v>
+        <v>202.8512977989538</v>
       </c>
       <c r="P18" t="n">
-        <v>154.8970685250016</v>
+        <v>154.8970685250015</v>
       </c>
       <c r="Q18" t="n">
-        <v>137.1455468758687</v>
+        <v>243.1741682024116</v>
       </c>
       <c r="R18" t="n">
-        <v>97.86357363423377</v>
+        <v>9.005274162535521</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.14673044579524</v>
+        <v>79.14673044579521</v>
       </c>
       <c r="K19" t="n">
-        <v>54.43630969946942</v>
+        <v>262.8001416042312</v>
       </c>
       <c r="L19" t="n">
         <v>399.0445420280532</v>
       </c>
       <c r="M19" t="n">
-        <v>87.67859509550325</v>
+        <v>87.6785950955032</v>
       </c>
       <c r="N19" t="n">
-        <v>188.3852287406551</v>
+        <v>419.8823352065379</v>
       </c>
       <c r="O19" t="n">
-        <v>391.9762131639513</v>
+        <v>73.71888041774875</v>
       </c>
       <c r="P19" t="n">
-        <v>318.8139700160491</v>
+        <v>318.813970016049</v>
       </c>
       <c r="Q19" t="n">
-        <v>143.0828088000476</v>
+        <v>21.47920317560525</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100.4242751247636</v>
+        <v>100.4242751247635</v>
       </c>
       <c r="K20" t="n">
-        <v>171.2666226594053</v>
+        <v>171.2666226594052</v>
       </c>
       <c r="L20" t="n">
-        <v>227.5675651452392</v>
+        <v>227.5675651452391</v>
       </c>
       <c r="M20" t="n">
-        <v>266.168442754028</v>
+        <v>266.1684427540279</v>
       </c>
       <c r="N20" t="n">
         <v>272.3627934923957</v>
       </c>
       <c r="O20" t="n">
-        <v>251.7291284486497</v>
+        <v>251.7291284486496</v>
       </c>
       <c r="P20" t="n">
-        <v>200.7309413657675</v>
+        <v>200.7309413657674</v>
       </c>
       <c r="Q20" t="n">
         <v>131.0335446218829</v>
       </c>
       <c r="R20" t="n">
-        <v>41.28108437739225</v>
+        <v>41.28108437739222</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>17.17032185484423</v>
       </c>
       <c r="J21" t="n">
-        <v>52.11380017038113</v>
+        <v>298.2435011548591</v>
       </c>
       <c r="K21" t="n">
-        <v>121.0432133517071</v>
+        <v>121.043213351707</v>
       </c>
       <c r="L21" t="n">
-        <v>181.7076684842495</v>
+        <v>235.7301165726324</v>
       </c>
       <c r="M21" t="n">
-        <v>219.9629973218359</v>
+        <v>219.9629973218358</v>
       </c>
       <c r="N21" t="n">
         <v>231.67920898797</v>
       </c>
       <c r="O21" t="n">
-        <v>202.8512977989539</v>
+        <v>202.8512977989538</v>
       </c>
       <c r="P21" t="n">
-        <v>207.1482806505091</v>
+        <v>154.8970685250015</v>
       </c>
       <c r="Q21" t="n">
-        <v>419.882335206538</v>
+        <v>83.12309878748624</v>
       </c>
       <c r="R21" t="n">
-        <v>9.005274162535535</v>
+        <v>97.86357363423375</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.14673044579524</v>
+        <v>79.14673044579521</v>
       </c>
       <c r="K22" t="n">
-        <v>54.4363096994694</v>
+        <v>54.43630969946938</v>
       </c>
       <c r="L22" t="n">
-        <v>399.0445420280532</v>
+        <v>226.4259617935147</v>
       </c>
       <c r="M22" t="n">
-        <v>419.882335206538</v>
+        <v>419.8823352065379</v>
       </c>
       <c r="N22" t="n">
-        <v>174.4388213758229</v>
+        <v>419.8823352065379</v>
       </c>
       <c r="O22" t="n">
-        <v>73.71888041774878</v>
+        <v>391.9762131639513</v>
       </c>
       <c r="P22" t="n">
-        <v>318.8139700160491</v>
+        <v>55.28115842704087</v>
       </c>
       <c r="Q22" t="n">
-        <v>143.0828088000476</v>
+        <v>15.53335404667672</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229095</v>
       </c>
       <c r="J23" t="n">
         <v>124.1289709513377</v>
@@ -36363,25 +36363,25 @@
         <v>206.7938168949561</v>
       </c>
       <c r="L23" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238497</v>
       </c>
       <c r="M23" t="n">
         <v>315.2099564264878</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501273999</v>
       </c>
       <c r="O23" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732532</v>
       </c>
       <c r="P23" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531725</v>
       </c>
       <c r="Q23" t="n">
         <v>161.1941121877317</v>
       </c>
       <c r="R23" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471046</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L24" t="n">
-        <v>214.1541257794519</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M24" t="n">
-        <v>506.0804618258591</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>418.7398885866995</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
-        <v>238.4057462161409</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P24" t="n">
-        <v>183.4326479153363</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.1983779132225</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R24" t="n">
         <v>107.1416677554515</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.34618924547858</v>
+        <v>38.00293370880812</v>
       </c>
       <c r="K25" t="n">
-        <v>158.5801352410747</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L25" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M25" t="n">
         <v>455.7678973594753</v>
@@ -36530,13 +36530,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O25" t="n">
-        <v>409.6841833510116</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P25" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>22.34618924547856</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L28" t="n">
-        <v>417.6704839137738</v>
+        <v>379.7094225569974</v>
       </c>
       <c r="M28" t="n">
         <v>455.7678973594753</v>
@@ -36767,13 +36767,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
-        <v>290.9087448428443</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P28" t="n">
         <v>70.43338606845131</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.5177167169422</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R30" t="n">
         <v>107.1416677554515</v>
@@ -37007,10 +37007,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P31" t="n">
-        <v>172.5593509021512</v>
+        <v>300.1088056555212</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
-        <v>157.506144139186</v>
+        <v>384.3513681050049</v>
       </c>
       <c r="L33" t="n">
         <v>214.1541257794518</v>
@@ -37168,10 +37168,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>506.0804618258589</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R33" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375327</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K34" t="n">
-        <v>177.8402386853482</v>
+        <v>213.3046563982688</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
-        <v>409.6841833510115</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P34" t="n">
         <v>333.9661976574595</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>167.4228683925619</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
@@ -37405,10 +37405,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>506.0804618258589</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R36" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K37" t="n">
-        <v>277.3555737492421</v>
+        <v>212.1979410611804</v>
       </c>
       <c r="L37" t="n">
-        <v>160.4121687474737</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M37" t="n">
         <v>455.7678973594753</v>
@@ -37478,13 +37478,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P37" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
-        <v>246.3644436108841</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L39" t="n">
         <v>214.1541257794518</v>
@@ -37642,10 +37642,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>506.0804618258588</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K40" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L40" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
@@ -37715,13 +37715,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O40" t="n">
-        <v>151.3191528476227</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>333.9661976574595</v>
+        <v>94.36383640308964</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
         <v>312.361855595743</v>
@@ -37879,7 +37879,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>272.2831751509797</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R42" t="n">
         <v>107.1416677554515</v>
@@ -37946,13 +37946,13 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273619</v>
       </c>
       <c r="N43" t="n">
         <v>107.9797223519805</v>
       </c>
       <c r="O43" t="n">
-        <v>169.5567187188988</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
         <v>333.9661976574595</v>
@@ -38107,7 +38107,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395447</v>
+        <v>420.8641668432641</v>
       </c>
       <c r="O45" t="n">
         <v>238.4057462161408</v>
@@ -38116,7 +38116,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.517716716942</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R45" t="n">
         <v>107.1416677554515</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
         <v>68.9917418444803</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M46" t="n">
         <v>455.7678973594753</v>
@@ -38192,10 +38192,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P46" t="n">
-        <v>160.0217794650457</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.0239710644933</v>
+        <v>103.5722272192378</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
